--- a/posesiones/1479710.xlsx
+++ b/posesiones/1479710.xlsx
@@ -1955,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>21</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>7</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>12</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>15</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>12</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>15</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>11</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>7</v>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24">
         <v>15</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>24</v>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>10</v>
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>21</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3476,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>9</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>25</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3729,7 +3729,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>12</v>
@@ -3782,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>9</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>19</v>
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>17</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47">
         <v>26</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R51">
         <v>18</v>
@@ -4429,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>2</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4532,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R54">
         <v>19</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4635,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R56">
         <v>21</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4738,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R58">
         <v>4</v>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4838,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R60">
         <v>24</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R67">
         <v>27</v>
@@ -5226,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R68">
         <v>10</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R70">
         <v>14</v>
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R72">
         <v>23</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R74">
         <v>7</v>
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R76">
         <v>21</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5735,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R78">
         <v>17</v>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5882,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R81">
         <v>-189</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6405,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R92">
         <v>205</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R95">
         <v>31</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R96">
         <v>15</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6755,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R99">
         <v>19</v>
@@ -6808,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R101">
         <v>17</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7190,7 +7190,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R108">
         <v>5</v>
@@ -7234,10 +7234,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7425,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7466,10 +7466,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7519,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R115">
         <v>10</v>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R117">
         <v>21</v>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7722,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R119">
         <v>9</v>
@@ -7775,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R120">
         <v>17</v>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7875,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7922,7 +7922,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7972,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R124">
         <v>22</v>
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R125">
         <v>15</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8128,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R127">
         <v>5</v>
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8269,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8460,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R134">
         <v>18</v>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8563,7 +8563,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R136">
         <v>12</v>
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8666,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R138">
         <v>8</v>
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8769,7 +8769,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R140">
         <v>18</v>
@@ -8822,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R141">
         <v>6</v>
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8922,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R143">
         <v>24</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R145">
         <v>6</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9219,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R149">
         <v>1</v>
@@ -9272,7 +9272,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R150">
         <v>9</v>
@@ -9322,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R153">
         <v>27</v>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9660,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9707,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9754,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9804,7 +9804,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R161">
         <v>25</v>
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9907,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R163">
         <v>8</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10054,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R166">
         <v>19</v>
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10201,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10251,7 +10251,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R170">
         <v>30</v>
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R172">
         <v>5</v>
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10495,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10636,7 +10636,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10686,7 +10686,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R179">
         <v>42</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10789,7 +10789,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R181">
         <v>15</v>
@@ -10842,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10892,7 +10892,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R183">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10992,7 +10992,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R185">
         <v>0</v>
@@ -11042,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11089,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11139,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R188">
         <v>0</v>
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11239,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R190">
         <v>18</v>
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R195">
         <v>20</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11583,7 +11583,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R197">
         <v>12</v>
@@ -11636,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11686,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R199">
         <v>15</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11786,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R201">
         <v>13</v>
@@ -11839,7 +11839,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R202">
         <v>0</v>
@@ -11886,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11936,7 +11936,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R204">
         <v>0</v>
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12083,7 +12083,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R207">
         <v>22</v>
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12186,7 +12186,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R209">
         <v>0</v>
@@ -12236,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12286,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R211">
         <v>28</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12433,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12624,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R219">
         <v>65</v>
@@ -12724,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12768,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12956,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -13003,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13194,7 +13194,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R230">
         <v>30</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13297,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R232">
         <v>0</v>
@@ -13341,10 +13341,10 @@
         <v>1</v>
       </c>
       <c r="P233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q233">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13385,10 +13385,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q234">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13438,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R235">
         <v>278</v>
@@ -13488,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13535,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13582,7 +13582,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13676,7 +13676,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13770,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13864,7 +13864,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13958,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -14008,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R247">
         <v>-262</v>
@@ -14061,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14155,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14296,7 +14296,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14390,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14437,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14484,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14578,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14625,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14766,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14813,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14954,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15004,7 +15004,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15054,7 +15054,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R269">
         <v>0</v>
@@ -15107,7 +15107,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R270">
         <v>11</v>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15257,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R274">
         <v>18</v>
@@ -15360,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15407,7 +15407,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15551,7 +15551,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R279">
         <v>4</v>
@@ -15604,7 +15604,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R280">
         <v>10</v>
@@ -15657,7 +15657,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15707,7 +15707,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R282">
         <v>8</v>
@@ -15760,7 +15760,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R283">
         <v>18</v>
@@ -15813,7 +15813,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R284">
         <v>5</v>
@@ -15863,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15913,7 +15913,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R286">
         <v>17</v>
@@ -15963,7 +15963,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16010,7 +16010,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16060,7 +16060,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R289">
         <v>0</v>
@@ -16113,7 +16113,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R290">
         <v>13</v>
@@ -16163,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16310,7 +16310,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R294">
         <v>16</v>
@@ -16363,7 +16363,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R295">
         <v>7</v>
@@ -16416,7 +16416,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R296">
         <v>12</v>
@@ -16469,7 +16469,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16563,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16610,7 +16610,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16707,7 +16707,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R302">
         <v>20</v>
@@ -16757,7 +16757,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16807,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R304">
         <v>5</v>
@@ -16860,7 +16860,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R305">
         <v>7</v>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16963,7 +16963,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R307">
         <v>17</v>
@@ -17016,7 +17016,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17063,7 +17063,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17110,7 +17110,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17160,7 +17160,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R311">
         <v>17</v>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17263,7 +17263,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R313">
         <v>9</v>
@@ -17310,7 +17310,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17360,7 +17360,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R315">
         <v>21</v>
@@ -17407,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R317">
         <v>2</v>
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17557,7 +17557,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17654,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17704,7 +17704,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R322">
         <v>41</v>
@@ -17754,7 +17754,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17801,7 +17801,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17895,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17942,7 +17942,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18036,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18086,7 +18086,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R330">
         <v>5</v>
@@ -18139,7 +18139,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R331">
         <v>17</v>
@@ -18189,7 +18189,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18239,7 +18239,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R333">
         <v>12</v>
@@ -18292,7 +18292,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18342,7 +18342,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R335">
         <v>5</v>
@@ -18389,7 +18389,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18436,7 +18436,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18486,7 +18486,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R338">
         <v>20</v>
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18589,7 +18589,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R340">
         <v>5</v>
@@ -18639,7 +18639,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18686,7 +18686,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18733,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18780,7 +18780,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18827,7 +18827,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18874,7 +18874,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18921,7 +18921,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18968,7 +18968,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19015,7 +19015,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19065,7 +19065,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R350">
         <v>15</v>
@@ -19118,7 +19118,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19165,7 +19165,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19215,7 +19215,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19262,7 +19262,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19356,7 +19356,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19406,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19456,7 +19456,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R358">
         <v>30</v>
@@ -19509,7 +19509,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R359">
         <v>22</v>
@@ -19562,7 +19562,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19609,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19656,7 +19656,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19703,7 +19703,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19753,7 +19753,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R364">
         <v>6</v>
@@ -19803,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19903,7 +19903,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R367">
         <v>17</v>
@@ -19953,7 +19953,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20000,7 +20000,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20050,7 +20050,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R370">
         <v>0</v>
@@ -20103,7 +20103,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R371">
         <v>18</v>
@@ -20156,7 +20156,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20206,7 +20206,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R373">
         <v>7</v>
@@ -20259,7 +20259,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20306,7 +20306,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20353,7 +20353,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20400,7 +20400,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20447,7 +20447,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20494,7 +20494,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20544,7 +20544,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R380">
         <v>8</v>
@@ -20597,7 +20597,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R381">
         <v>8</v>
@@ -20647,7 +20647,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20694,7 +20694,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20741,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20788,7 +20788,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20838,7 +20838,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R386">
         <v>10</v>
@@ -20891,7 +20891,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R387">
         <v>8</v>
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20991,7 +20991,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R389">
         <v>13</v>
@@ -21041,7 +21041,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21091,7 +21091,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R391">
         <v>25</v>
@@ -21141,7 +21141,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21191,7 +21191,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R393">
         <v>4</v>
@@ -21241,7 +21241,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21288,7 +21288,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21338,7 +21338,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R396">
         <v>0</v>
@@ -21388,7 +21388,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21482,7 +21482,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21529,7 +21529,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21576,7 +21576,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21623,7 +21623,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21720,7 +21720,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R404">
         <v>12</v>
@@ -21770,7 +21770,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21817,7 +21817,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21867,7 +21867,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R407">
         <v>12</v>
@@ -21920,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21970,7 +21970,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R409">
         <v>6</v>
@@ -22020,7 +22020,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22067,7 +22067,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22114,7 +22114,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22161,7 +22161,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22261,7 +22261,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="R415">
         <v>19</v>
@@ -22305,10 +22305,10 @@
         <v>1</v>
       </c>
       <c r="P416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q416">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22355,7 +22355,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22402,7 +22402,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22449,7 +22449,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22496,7 +22496,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22543,7 +22543,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22590,7 +22590,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22631,10 +22631,10 @@
         <v>1</v>
       </c>
       <c r="P423" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q423">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22684,7 +22684,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R424">
         <v>17</v>
@@ -22737,7 +22737,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22784,7 +22784,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22837,7 +22837,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R427">
         <v>6</v>
@@ -22887,7 +22887,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22937,7 +22937,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R429">
         <v>5</v>
@@ -22987,7 +22987,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23034,7 +23034,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23081,7 +23081,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23128,7 +23128,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23175,7 +23175,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23225,7 +23225,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R435">
         <v>15</v>
@@ -23278,7 +23278,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R436">
         <v>8</v>
@@ -23328,7 +23328,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23378,7 +23378,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R438">
         <v>10</v>
@@ -23431,7 +23431,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R439">
         <v>22</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23528,7 +23528,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23575,7 +23575,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23622,7 +23622,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23672,7 +23672,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23722,7 +23722,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R445">
         <v>31</v>
@@ -23775,7 +23775,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23825,7 +23825,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R447">
         <v>7</v>
@@ -23878,7 +23878,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23925,7 +23925,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24066,7 +24066,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24163,7 +24163,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R454">
         <v>11</v>
@@ -24216,7 +24216,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R455">
         <v>20</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24316,7 +24316,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24366,7 +24366,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R458">
         <v>23</v>
@@ -24419,7 +24419,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R459">
         <v>16</v>
@@ -24469,7 +24469,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24516,7 +24516,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24563,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24704,7 +24704,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24754,7 +24754,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R466">
         <v>8</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24945,7 +24945,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24995,7 +24995,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R471">
         <v>21</v>
@@ -25048,7 +25048,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R472">
         <v>11</v>
@@ -25101,7 +25101,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25148,7 +25148,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25195,7 +25195,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25242,7 +25242,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25336,7 +25336,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25386,7 +25386,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25436,7 +25436,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R480">
         <v>28</v>
@@ -25483,7 +25483,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25530,7 +25530,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25577,7 +25577,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25627,7 +25627,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R484">
         <v>11</v>
@@ -25680,7 +25680,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25730,7 +25730,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R486">
         <v>20</v>
@@ -25780,7 +25780,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25977,7 +25977,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R491">
         <v>18</v>
@@ -26030,7 +26030,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26080,7 +26080,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R493">
         <v>24</v>
@@ -26130,7 +26130,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26180,7 +26180,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R495">
         <v>5</v>
@@ -26230,7 +26230,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26280,7 +26280,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R497">
         <v>8</v>
@@ -26330,7 +26330,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26421,7 +26421,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26468,7 +26468,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26518,7 +26518,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R502">
         <v>13</v>
@@ -26568,7 +26568,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26618,7 +26618,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R504">
         <v>24</v>
@@ -26668,7 +26668,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26768,7 +26768,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R507">
         <v>17</v>
@@ -26818,7 +26818,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26865,7 +26865,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26912,7 +26912,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26959,7 +26959,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -27009,7 +27009,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R512">
         <v>25</v>
@@ -27059,7 +27059,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27106,7 +27106,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27200,7 +27200,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27250,7 +27250,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R517">
         <v>3</v>
@@ -27300,7 +27300,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27350,7 +27350,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27400,7 +27400,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R520">
         <v>37</v>
@@ -27453,7 +27453,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27500,7 +27500,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27547,7 +27547,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27644,7 +27644,7 @@
         <v>1</v>
       </c>
       <c r="Q525">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R525">
         <v>6</v>
@@ -27697,7 +27697,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R526">
         <v>16</v>
@@ -27750,7 +27750,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27800,7 +27800,7 @@
         <v>1</v>
       </c>
       <c r="Q528">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R528">
         <v>5</v>
@@ -27850,7 +27850,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27947,7 +27947,7 @@
         <v>1</v>
       </c>
       <c r="Q531">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R531">
         <v>0</v>
@@ -27994,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -28041,7 +28041,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -28088,7 +28088,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28182,7 +28182,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28229,7 +28229,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28279,7 +28279,7 @@
         <v>1</v>
       </c>
       <c r="Q538">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R538">
         <v>13</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28376,7 +28376,7 @@
         <v>0</v>
       </c>
       <c r="Q540">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -28423,7 +28423,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28470,7 +28470,7 @@
         <v>0</v>
       </c>
       <c r="Q542">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="543" spans="1:18">
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="Q546">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -28705,7 +28705,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28755,7 +28755,7 @@
         <v>1</v>
       </c>
       <c r="Q548">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R548">
         <v>16</v>
@@ -28808,7 +28808,7 @@
         <v>0</v>
       </c>
       <c r="Q549">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="550" spans="1:18">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="Q550">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -28902,7 +28902,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -28949,7 +28949,7 @@
         <v>0</v>
       </c>
       <c r="Q552">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="553" spans="1:18">
@@ -28996,7 +28996,7 @@
         <v>0</v>
       </c>
       <c r="Q553">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="554" spans="1:18">
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="Q554">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="555" spans="1:18">
@@ -29093,7 +29093,7 @@
         <v>1</v>
       </c>
       <c r="Q555">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R555">
         <v>22</v>
@@ -29146,7 +29146,7 @@
         <v>1</v>
       </c>
       <c r="Q556">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R556">
         <v>0</v>
@@ -29196,7 +29196,7 @@
         <v>0</v>
       </c>
       <c r="Q557">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -29246,7 +29246,7 @@
         <v>1</v>
       </c>
       <c r="Q558">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R558">
         <v>10</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="Q559">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="560" spans="1:18">
@@ -29343,7 +29343,7 @@
         <v>1</v>
       </c>
       <c r="Q560">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R560">
         <v>4</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q561">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="562" spans="1:18">
@@ -29443,7 +29443,7 @@
         <v>0</v>
       </c>
       <c r="Q562">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="563" spans="1:18">
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="Q563">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="564" spans="1:18">
@@ -29537,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="Q564">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="565" spans="1:18">
@@ -29587,7 +29587,7 @@
         <v>1</v>
       </c>
       <c r="Q565">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R565">
         <v>5</v>
@@ -29640,7 +29640,7 @@
         <v>1</v>
       </c>
       <c r="Q566">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="R566">
         <v>4</v>
@@ -29690,7 +29690,7 @@
         <v>0</v>
       </c>
       <c r="Q567">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="568" spans="1:18">
@@ -29737,7 +29737,7 @@
         <v>0</v>
       </c>
       <c r="Q568">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="569" spans="1:18">
@@ -29784,7 +29784,7 @@
         <v>0</v>
       </c>
       <c r="Q569">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="570" spans="1:18">
@@ -29834,7 +29834,7 @@
         <v>1</v>
       </c>
       <c r="Q570">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="R570">
         <v>3</v>
@@ -29884,7 +29884,7 @@
         <v>0</v>
       </c>
       <c r="Q571">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="572" spans="1:18">
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="Q572">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="573" spans="1:18">
@@ -29978,7 +29978,7 @@
         <v>0</v>
       </c>
       <c r="Q573">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="574" spans="1:18">
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="Q574">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="575" spans="1:18">
@@ -30072,7 +30072,7 @@
         <v>0</v>
       </c>
       <c r="Q575">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="576" spans="1:18">
@@ -30122,7 +30122,7 @@
         <v>1</v>
       </c>
       <c r="Q576">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="R576">
         <v>5</v>
@@ -30175,7 +30175,7 @@
         <v>1</v>
       </c>
       <c r="Q577">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="R577">
         <v>7</v>
@@ -30231,7 +30231,7 @@
         <v>1</v>
       </c>
       <c r="Q578">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="R578">
         <v>5</v>
@@ -30275,10 +30275,10 @@
         <v>1</v>
       </c>
       <c r="P579" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q579">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="580" spans="1:18">
@@ -30319,7 +30319,7 @@
         <v>0</v>
       </c>
       <c r="Q580">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
